--- a/The type of administrative accounts.xlsx
+++ b/The type of administrative accounts.xlsx
@@ -37,131 +37,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>机器人</t>
+  </si>
+  <si>
+    <t>行政员</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=bureaucrat</t>
+  </si>
+  <si>
+    <t>用户查核员</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=checkuser</t>
+  </si>
+  <si>
+    <t>确认用户</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=confirmed</t>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构式讨论机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=flow-bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督员</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=oversight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡查员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=patroller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回退员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=rollbacker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监管员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=steward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=sysop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No list the users in the type of 自动确认用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No users in the type of 机器人用户、大量信息发送者、导入者、跨维基导入者、账户创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baidu Baike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科蝌蚪团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科任务评审团委员会</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E4%BB%BB%E5%8A%A1%E8%AF%84%E5%AE%A1%E5%9B%A2%E5%A7%94%E5%91%98%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E4%BB%BB%E5%8A%A1%E8%AF%84%E5%AE%A1%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/kedou/</t>
+  </si>
+  <si>
+    <t>百科任务评审团（from 百科蝌蚪团）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类管理员、管理组长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E5%88%86%E7%B1%BB%E7%AE%A1%E7%90%86%E5%91%98?fromtitle=%E5%88%86%E7%B1%BB%E7%AE%A1%E7%90%86%E5%91%98&amp;fromid=8855506</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E7%89%B9%E8%89%B2%E8%AF%8D%E6%9D%A1%E5%AE%A1%E6%A0%B8%E7%BB%84</t>
+  </si>
+  <si>
+    <t>百科特色词条审核组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=autoreviewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=bot</t>
-  </si>
-  <si>
-    <t>机器人</t>
-  </si>
-  <si>
-    <t>行政员</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=bureaucrat</t>
-  </si>
-  <si>
-    <t>用户查核员</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=checkuser</t>
-  </si>
-  <si>
-    <t>确认用户</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=confirmed</t>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构式讨论机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=flow-bot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监督员</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=oversight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡查员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=patroller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回退员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=rollbacker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监管员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=steward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/w/index.php?title=Special:%E7%94%A8%E6%88%B7%E5%88%97%E8%A1%A8&amp;group=sysop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No list the users in the type of 自动确认用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No users in the type of 机器人用户、大量信息发送者、导入者、跨维基导入者、账户创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wikipedia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baidu Baike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百科蝌蚪团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百科任务评审团委员会</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E4%BB%BB%E5%8A%A1%E8%AF%84%E5%AE%A1%E5%9B%A2%E5%A7%94%E5%91%98%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E4%BB%BB%E5%8A%A1%E8%AF%84%E5%AE%A1%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/kedou/</t>
-  </si>
-  <si>
-    <t>百科任务评审团（from 百科蝌蚪团）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类管理员、管理组长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E5%88%86%E7%B1%BB%E7%AE%A1%E7%90%86%E5%91%98?fromtitle=%E5%88%86%E7%B1%BB%E7%AE%A1%E7%90%86%E5%91%98&amp;fromid=8855506</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E7%89%B9%E8%89%B2%E8%AF%8D%E6%9D%A1%E5%AE%A1%E6%A0%B8%E7%BB%84</t>
-  </si>
-  <si>
-    <t>百科特色词条审核组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +562,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,7 +581,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -587,147 +589,147 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -743,8 +745,10 @@
     <hyperlink ref="B11" r:id="rId4" xr:uid="{EC98B8FD-4F16-41E8-B1E3-85B6C4650355}"/>
     <hyperlink ref="B12" r:id="rId5" xr:uid="{0E5E84BB-BB66-4E1E-B02B-16D948FA8357}"/>
     <hyperlink ref="B13" r:id="rId6" xr:uid="{27EB1F11-61EE-4AA4-8DE8-F272C0BBB829}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{4F967617-D0D7-4366-AFE0-20F0F8096938}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{348BB454-6032-44F9-9C54-D0EEBCA5DF63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>